--- a/src/main/resources/testdata/Check_Delete_LeadInfo_Button_Enabled_LeadInfoTab.xlsx
+++ b/src/main/resources/testdata/Check_Delete_LeadInfo_Button_Enabled_LeadInfoTab.xlsx
@@ -156,9 +156,6 @@
     <t>selenium_assession</t>
   </si>
   <si>
-    <t>Ensure all info is present in Lead Info and Regulatory Check Tabs</t>
-  </si>
-  <si>
     <t>suggestedProjectName</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   <si>
     <t xml:space="preserve">
 ADB57258</t>
+  </si>
+  <si>
+    <t>Check Edit Lead Info Button Enabled from Lead Info tab (User is creator of the nominated GF to DB Lead)</t>
   </si>
 </sst>
 </file>
@@ -539,14 +539,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -653,19 +653,19 @@
         <v>35</v>
       </c>
       <c r="AB1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>50</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="90" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -703,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
@@ -712,7 +712,7 @@
         <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P2" t="s">
         <v>37</v>
@@ -721,7 +721,7 @@
         <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
         <v>39</v>
@@ -748,19 +748,19 @@
         <v>45</v>
       </c>
       <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
         <v>52</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>53</v>
       </c>
       <c r="AD2" t="s">
         <v>21</v>
       </c>
       <c r="AE2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" t="s">
         <v>54</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
